--- a/documentation/0 architecture/develop/standards/button/button-standard.xlsx
+++ b/documentation/0 architecture/develop/standards/button/button-standard.xlsx
@@ -7,9 +7,7 @@
     <workbookView xWindow="120" yWindow="60" windowWidth="23715" windowHeight="9855"/>
   </bookViews>
   <sheets>
-    <sheet name="버튼" sheetId="1" r:id="rId1"/>
-    <sheet name="레이블" sheetId="4" r:id="rId2"/>
-    <sheet name="사용자 메시지" sheetId="5" r:id="rId3"/>
+    <sheet name="Button" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -927,15 +925,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -945,75 +1009,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1021,6 +1016,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1330,1331 +1328,1305 @@
       <pane xSplit="3" ySplit="3" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K33" sqref="K33:L34"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="30" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="13" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="15"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="18" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="19" t="s">
+      <c r="M3" s="31"/>
+      <c r="N3" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="21"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="21"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="21"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="21" t="s">
+      <c r="J7" s="13"/>
+      <c r="K7" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="21"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="21" t="s">
+      <c r="J8" s="13"/>
+      <c r="K8" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="21"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="21"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="21" t="s">
+      <c r="I10" s="6"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="21"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="21"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="21" t="s">
+      <c r="J12" s="13"/>
+      <c r="K12" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="21"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="21" t="s">
+      <c r="J13" s="13"/>
+      <c r="K13" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="21"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="J14" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="22" t="s">
+      <c r="J14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="21"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="21" t="s">
+      <c r="J15" s="13"/>
+      <c r="K15" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="21"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="21" t="s">
+      <c r="J16" s="13"/>
+      <c r="K16" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="21"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="28"/>
-      <c r="N17" s="21"/>
+      <c r="I17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="21" t="s">
+      <c r="I18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="21"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I19" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="21" t="s">
+      <c r="I19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="21"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="21" t="s">
+      <c r="I20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="21"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I21" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="21" t="s">
+      <c r="I21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="21"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I22" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" s="28"/>
-      <c r="N22" s="21"/>
+      <c r="I22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="13"/>
+      <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" s="28"/>
-      <c r="N23" s="21"/>
-    </row>
-    <row r="24" spans="1:14" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="I23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="13"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I24" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="25" t="s">
+      <c r="I24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="24"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="9"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I25" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" s="28"/>
-      <c r="N25" s="21"/>
+      <c r="I25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="13"/>
+      <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I26" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" s="28"/>
-      <c r="N26" s="21"/>
+      <c r="I26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="13"/>
+      <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I27" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" s="28"/>
-      <c r="N27" s="21"/>
+      <c r="I27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="13"/>
+      <c r="N27" s="6"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I28" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="21"/>
+      <c r="I28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="13"/>
+      <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="21" t="s">
+      <c r="I29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="21"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="21" t="s">
+      <c r="I30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="21"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" s="21" t="s">
+      <c r="I31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="21"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I32" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="21" t="s">
+      <c r="I32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="21"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I33" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K33" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="L33" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M33" s="28"/>
-      <c r="N33" s="21"/>
+      <c r="I33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" s="13"/>
+      <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="G34" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K34" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="21"/>
+      <c r="I34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" s="13"/>
+      <c r="N34" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="H1:H3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/documentation/0 architecture/develop/standards/button/button-standard.xlsx
+++ b/documentation/0 architecture/develop/standards/button/button-standard.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="23715" windowHeight="9855"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="9795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Button" sheetId="1" r:id="rId1"/>
+    <sheet name="Button List" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="234">
   <si>
     <t>등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -710,12 +711,260 @@
     <t>X건이 일괄 추출되었습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>익스포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프린트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Print</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_ko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,8 +996,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -770,6 +1034,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +1191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -967,15 +1237,42 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -994,32 +1291,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1324,14 +1621,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.75" style="1" bestFit="1" customWidth="1"/>
@@ -1348,75 +1645,75 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="24" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="26"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="16"/>
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1429,12 +1726,12 @@
       <c r="L3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="31"/>
+      <c r="M3" s="24"/>
       <c r="N3" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1769,7 @@
       <c r="M4" s="13"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="24">
       <c r="A5" s="5" t="s">
         <v>88</v>
       </c>
@@ -1510,7 +1807,7 @@
       <c r="M5" s="13"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1548,7 +1845,7 @@
       <c r="M6" s="13"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
@@ -1584,7 +1881,7 @@
       <c r="M7" s="13"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1620,7 +1917,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1656,7 +1953,7 @@
       <c r="M9" s="13"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1690,7 +1987,7 @@
       <c r="M10" s="13"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -1726,7 +2023,7 @@
       <c r="M11" s="13"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1762,7 +2059,7 @@
       <c r="M12" s="13"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -1798,7 +2095,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="36">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1836,7 +2133,7 @@
       <c r="M14" s="13"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -1872,7 +2169,7 @@
       <c r="M15" s="13"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -1908,7 +2205,7 @@
       <c r="M16" s="13"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -1948,7 +2245,7 @@
       <c r="M17" s="13"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -1986,7 +2283,7 @@
       <c r="M18" s="13"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -2024,7 +2321,7 @@
       <c r="M19" s="13"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
@@ -2062,7 +2359,7 @@
       <c r="M20" s="13"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="5" t="s">
         <v>54</v>
       </c>
@@ -2100,7 +2397,7 @@
       <c r="M21" s="13"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="5" t="s">
         <v>68</v>
       </c>
@@ -2140,7 +2437,7 @@
       <c r="M22" s="13"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23" s="5" t="s">
         <v>69</v>
       </c>
@@ -2180,7 +2477,7 @@
       <c r="M23" s="13"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="11" customFormat="1" ht="60">
       <c r="A24" s="8" t="s">
         <v>72</v>
       </c>
@@ -2218,7 +2515,7 @@
       <c r="M24" s="14"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="5" t="s">
         <v>78</v>
       </c>
@@ -2258,7 +2555,7 @@
       <c r="M25" s="13"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="5" t="s">
         <v>79</v>
       </c>
@@ -2298,7 +2595,7 @@
       <c r="M26" s="13"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
@@ -2338,7 +2635,7 @@
       <c r="M27" s="13"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="5" t="s">
         <v>79</v>
       </c>
@@ -2378,7 +2675,7 @@
       <c r="M28" s="13"/>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="5" t="s">
         <v>121</v>
       </c>
@@ -2416,7 +2713,7 @@
       <c r="M29" s="13"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="5" t="s">
         <v>116</v>
       </c>
@@ -2454,7 +2751,7 @@
       <c r="M30" s="13"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="5" t="s">
         <v>117</v>
       </c>
@@ -2492,7 +2789,7 @@
       <c r="M31" s="13"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="5" t="s">
         <v>118</v>
       </c>
@@ -2530,7 +2827,7 @@
       <c r="M32" s="13"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14">
       <c r="A33" s="5" t="s">
         <v>119</v>
       </c>
@@ -2570,7 +2867,7 @@
       <c r="M33" s="13"/>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
       <c r="A34" s="5" t="s">
         <v>128</v>
       </c>
@@ -2612,11 +2909,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:M3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="D1:D3"/>
@@ -2624,6 +2916,613 @@
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="E1:E3"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:M3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="35"/>
+    <col min="2" max="2" width="16.75" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.875" style="35" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="41"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="36" t="str">
+        <f>"button."&amp;LOWER(E3)</f>
+        <v>button.create</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="36" t="str">
+        <f t="shared" ref="B4:B24" si="0">"button."&amp;LOWER(E4)</f>
+        <v>button.add row</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.update</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.delete</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.list</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.search</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.detail</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.save</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.cancel</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.reset</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.confirm</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.yes</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.no</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.check</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.next</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.prev</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.upload</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.download</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.import</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.export</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.report</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>button.print</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="36" t="str">
+        <f>"button."&amp;LOWER(E25)</f>
+        <v>button.approve</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" s="36" t="str">
+        <f>"button."&amp;LOWER(E26)</f>
+        <v>button.reject</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" s="36" t="str">
+        <f>"button."&amp;LOWER(E27)</f>
+        <v>button.accept</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" s="36" t="str">
+        <f>"button."&amp;LOWER(E28)</f>
+        <v>button.decline</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
